--- a/term/1.0.0/ValueSet-KLConditionCodesFSIII.xlsx
+++ b/term/1.0.0/ValueSet-KLConditionCodesFSIII.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T15:38:16+02:00</t>
+    <t>2023-04-28T21:07:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/1.0.0/ValueSet-KLConditionCodesFSIII.xlsx
+++ b/term/1.0.0/ValueSet-KLConditionCodesFSIII.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T21:07:42+02:00</t>
+    <t>2023-05-07T22:59:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/1.0.0/ValueSet-KLConditionCodesFSIII.xlsx
+++ b/term/1.0.0/ValueSet-KLConditionCodesFSIII.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:59:57+02:00</t>
+    <t>2023-05-09T23:45:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/term/1.0.0/ValueSet-KLConditionCodesFSIII.xlsx
+++ b/term/1.0.0/ValueSet-KLConditionCodesFSIII.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T23:45:50+02:00</t>
+    <t>2023-06-07T11:46:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
